--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +775,9 @@
       <c r="D23" t="n">
         <v>1.200000047683716</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1.210000038146973</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -787,7 +789,9 @@
       <c r="C24" t="n">
         <v>1.200000047683716</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1.210000038146973</v>
+      </c>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -797,9 +801,22 @@
       <c r="B25" t="n">
         <v>1.200000047683716</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1.210000038146973</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,6 +1195,20 @@
         <v>0.9914126396179199</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.969795823097229</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9494584798812866</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9467955827713013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,356 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.149999976158142</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9700000286102295</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.100000023841858</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.179999947547913</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.200000047683716</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.200000047683716</v>
+      </c>
       <c r="E8" t="n">
-        <v>0.9100000262260437</v>
+        <v>1.210000038146973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.200000047683716</v>
+      </c>
       <c r="D9" t="n">
-        <v>0.9100000262260437</v>
+        <v>1.210000038146973</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8999999761581421</v>
+        <v>1.240000009536743</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.200000047683716</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.9100000262260437</v>
+        <v>1.210000038146973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8999999761581421</v>
+        <v>1.240000009536743</v>
       </c>
       <c r="E10" t="n">
-        <v>1.210000038146973</v>
+        <v>1.200000047683716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9100000262260437</v>
+        <v>1.210000038146973</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8999999761581421</v>
+        <v>1.240000009536743</v>
       </c>
       <c r="D11" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E11" t="n">
         <v>1.210000038146973</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.129999995231628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8999999761581421</v>
+        <v>1.240000009536743</v>
       </c>
       <c r="C12" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.210000038146973</v>
       </c>
-      <c r="D12" t="n">
-        <v>1.129999995231628</v>
-      </c>
       <c r="E12" t="n">
-        <v>1.129999995231628</v>
+        <v>1.049999952316284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.210000038146973</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.129999995231628</v>
-      </c>
       <c r="D13" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.200000047683716</v>
-      </c>
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.129999995231628</v>
+        <v>1.210000038146973</v>
       </c>
       <c r="C14" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.200000047683716</v>
-      </c>
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.149999976158142</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.100000023841858</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.179999947547913</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.200000047683716</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.210000038146973</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.210000038146973</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.240000009536743</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.210000038146973</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.240000009536743</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.200000047683716</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.210000038146973</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.240000009536743</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.210000038146973</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.240000009536743</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.210000038146973</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.210000038146973</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45684</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1.210000038146973</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -829,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,352 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.025487899780273</v>
+        <v>0.9092007875442505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.974492073059082</v>
+        <v>0.9931704998016357</v>
       </c>
       <c r="D2" t="n">
-        <v>1.064059972763062</v>
+        <v>0.9971244931221008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.037700891494751</v>
+        <v>1.107100009918213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9750216603279114</v>
+        <v>1.184853196144104</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06300675868988</v>
+        <v>1.11607563495636</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.026569604873657</v>
+        <v>0.9730998277664185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9645013213157654</v>
+        <v>1.140641689300537</v>
       </c>
       <c r="D4" t="n">
-        <v>1.063965797424316</v>
+        <v>1.10826587677002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.040107727050781</v>
+        <v>0.9650121331214905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9749284386634827</v>
+        <v>1.154346466064453</v>
       </c>
       <c r="D5" t="n">
-        <v>1.044157385826111</v>
+        <v>1.07198441028595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>0.991473376750946</v>
+        <v>0.9894226789474487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9957296252250671</v>
+        <v>1.119542002677917</v>
       </c>
       <c r="D6" t="n">
-        <v>1.095270276069641</v>
+        <v>1.073676705360413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.004004716873169</v>
+        <v>0.9895160794258118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9876753687858582</v>
+        <v>1.11706817150116</v>
       </c>
       <c r="D7" t="n">
-        <v>1.07708215713501</v>
+        <v>1.092537403106689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9987179636955261</v>
+        <v>0.9844812154769897</v>
       </c>
       <c r="C8" t="n">
-        <v>1.009612321853638</v>
+        <v>1.161409020423889</v>
       </c>
       <c r="D8" t="n">
-        <v>1.004639148712158</v>
+        <v>1.121103644371033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>0.986846387386322</v>
+        <v>0.9900747537612915</v>
       </c>
       <c r="C9" t="n">
-        <v>1.01110303401947</v>
+        <v>1.160345673561096</v>
       </c>
       <c r="D9" t="n">
-        <v>1.00247848033905</v>
+        <v>1.149819254875183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.011545777320862</v>
+        <v>0.9597873687744141</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9965053796768188</v>
+        <v>1.153417229652405</v>
       </c>
       <c r="D10" t="n">
-        <v>1.076446175575256</v>
+        <v>1.142284512519836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9581125378608704</v>
+        <v>0.9157249927520752</v>
       </c>
       <c r="C11" t="n">
-        <v>1.020755052566528</v>
+        <v>0.9915380477905273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9528462886810303</v>
+        <v>0.9964306354522705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9549990296363831</v>
+        <v>0.9625160098075867</v>
       </c>
       <c r="C12" t="n">
-        <v>1.040513753890991</v>
+        <v>1.171068549156189</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9881575107574463</v>
+        <v>1.118553400039673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.09163224697113</v>
+        <v>0.9584944844245911</v>
       </c>
       <c r="C13" t="n">
-        <v>1.008264899253845</v>
+        <v>1.169549107551575</v>
       </c>
       <c r="D13" t="n">
-        <v>0.973683774471283</v>
+        <v>1.124845147132874</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9657397866249084</v>
+        <v>0.963966965675354</v>
       </c>
       <c r="C14" t="n">
-        <v>1.023609042167664</v>
+        <v>1.187256455421448</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9726367592811584</v>
+        <v>1.135475039482117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9782900214195251</v>
+        <v>0.9635753035545349</v>
       </c>
       <c r="C15" t="n">
-        <v>1.040283560752869</v>
+        <v>1.125746369361877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9652721285820007</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.991188108921051</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.017488241195679</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9757999181747437</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9938054084777832</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.07673192024231</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9772301912307739</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9933682680130005</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9974397420883179</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9798430800437927</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9778303503990173</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9768000245094299</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9524531960487366</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9926558136940002</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.004400491714478</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.034166097640991</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.002606272697449</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.017915487289429</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9970596432685852</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.003745198249817</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.00379467010498</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.000785708427429</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.071771264076233</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9833990335464478</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9941115975379944</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9935822486877441</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.97449791431427</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9899603128433228</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.975094199180603</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9769933819770813</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9914126396179199</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45684</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.969795823097229</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.9494584798812866</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9467955827713013</v>
+        <v>1.208940982818604</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,152 +484,92 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.149999976158142</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9700000286102295</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.100000023841858</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.179999947547913</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.200000047683716</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.210000038146973</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.210000038146973</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1.240000009536743</v>
+        <v>0.9100000262260437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.210000038146973</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.240000009536743</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="E10" t="n">
-        <v>1.200000047683716</v>
+        <v>0.8999999761581421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.210000038146973</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.240000009536743</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="D11" t="n">
-        <v>1.200000047683716</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="E11" t="n">
         <v>1.210000038146973</v>
@@ -637,59 +577,280 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.240000009536743</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="C12" t="n">
-        <v>1.200000047683716</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D12" t="n">
         <v>1.210000038146973</v>
       </c>
       <c r="E12" t="n">
-        <v>1.049999952316284</v>
+        <v>1.129999995231628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.200000047683716</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C13" t="n">
         <v>1.210000038146973</v>
       </c>
       <c r="D13" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.129999995231628</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
         <v>1.210000038146973</v>
       </c>
       <c r="C14" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.200000047683716</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.200000047683716</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.149999976158142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.179999947547913</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.200000047683716</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.210000038146973</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.240000009536743</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.200000047683716</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.210000038146973</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.049999952316284</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>1.049999952316284</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9092007875442505</v>
+        <v>0.9543657302856445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9931704998016357</v>
+        <v>1.001143455505371</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9971244931221008</v>
+        <v>0.9408697485923767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.107100009918213</v>
+        <v>1.003283977508545</v>
       </c>
       <c r="C3" t="n">
-        <v>1.184853196144104</v>
+        <v>0.971832811832428</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11607563495636</v>
+        <v>1.02521812915802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9730998277664185</v>
+        <v>1.004850387573242</v>
       </c>
       <c r="C4" t="n">
-        <v>1.140641689300537</v>
+        <v>0.9716927409172058</v>
       </c>
       <c r="D4" t="n">
-        <v>1.10826587677002</v>
+        <v>1.073493599891663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9650121331214905</v>
+        <v>1.004195213317871</v>
       </c>
       <c r="C5" t="n">
-        <v>1.154346466064453</v>
+        <v>0.9706117510795593</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07198441028595</v>
+        <v>1.072295427322388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9894226789474487</v>
+        <v>1.005043029785156</v>
       </c>
       <c r="C6" t="n">
-        <v>1.119542002677917</v>
+        <v>0.9806271195411682</v>
       </c>
       <c r="D6" t="n">
-        <v>1.073676705360413</v>
+        <v>1.065536737442017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9895160794258118</v>
+        <v>1.049460291862488</v>
       </c>
       <c r="C7" t="n">
-        <v>1.11706817150116</v>
+        <v>1.014093041419983</v>
       </c>
       <c r="D7" t="n">
-        <v>1.092537403106689</v>
+        <v>1.045212268829346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9844812154769897</v>
+        <v>1.054728627204895</v>
       </c>
       <c r="C8" t="n">
-        <v>1.161409020423889</v>
+        <v>0.9922175407409668</v>
       </c>
       <c r="D8" t="n">
-        <v>1.121103644371033</v>
+        <v>1.037800669670105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9900747537612915</v>
+        <v>1.049834370613098</v>
       </c>
       <c r="C9" t="n">
-        <v>1.160345673561096</v>
+        <v>1.045045971870422</v>
       </c>
       <c r="D9" t="n">
-        <v>1.149819254875183</v>
+        <v>1.01186740398407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9597873687744141</v>
+        <v>1.089642763137817</v>
       </c>
       <c r="C10" t="n">
-        <v>1.153417229652405</v>
+        <v>1.012668967247009</v>
       </c>
       <c r="D10" t="n">
-        <v>1.142284512519836</v>
+        <v>1.010487198829651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9157249927520752</v>
+        <v>1.029096364974976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9915380477905273</v>
+        <v>1.022085428237915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9964306354522705</v>
+        <v>1.026133060455322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9625160098075867</v>
+        <v>1.030034184455872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.171068549156189</v>
+        <v>0.9649601578712463</v>
       </c>
       <c r="D12" t="n">
-        <v>1.118553400039673</v>
+        <v>0.9680001139640808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9584944844245911</v>
+        <v>0.9891443848609924</v>
       </c>
       <c r="C13" t="n">
-        <v>1.169549107551575</v>
+        <v>0.9809468388557434</v>
       </c>
       <c r="D13" t="n">
-        <v>1.124845147132874</v>
+        <v>0.9756661057472229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.963966965675354</v>
+        <v>1.090359926223755</v>
       </c>
       <c r="C14" t="n">
-        <v>1.187256455421448</v>
+        <v>0.9830696582794189</v>
       </c>
       <c r="D14" t="n">
-        <v>1.135475039482117</v>
+        <v>0.9530662894248962</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9996044039726257</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9983212351799011</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9628378748893738</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.002893686294556</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.025540590286255</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9551997780799866</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9656405448913574</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.015082120895386</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9420315623283386</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9672650694847107</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9886801838874817</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9834606051445007</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9727797508239746</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.041106700897217</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.985750138759613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9572153091430664</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9694448709487915</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9367305636405945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9740041494369507</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.00508451461792</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9371750950813293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9771606922149658</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9771436452865601</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9317099452018738</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9742540717124939</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.998274564743042</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9376627802848816</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.064776182174683</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9744787216186523</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9488679766654968</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9762359857559204</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.004546165466309</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9375849366188049</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9815496206283569</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9950107932090759</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9357383847236633</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9783434867858887</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9908843636512756</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9341585040092468</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.9635753035545349</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.125746369361877</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.208940982818604</v>
+      <c r="B28" t="n">
+        <v>0.971321165561676</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9767059683799744</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9348118901252747</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_136_200G_CAT_I_CAISSE.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 136/200G CAT.I CAISSE_S+1</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 136/200G CAT.I CAISSE_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 136/200G CAT.I CAISSE_S+2</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 136/200G CAT.I CAISSE_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 136/200G CAT.I CAISSE_S+3</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 136/200G CAT.I CAISSE_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.200000047683716</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>0.9100000262260437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>0.9100000262260437</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8999999761581421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.9100000262260437</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8999999761581421</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.210000038146973</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8999999761581421</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.210000038146973</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>1.129999995231628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>0.8999999761581421</v>
       </c>
       <c r="C13" t="n">
-        <v>1.210000038146973</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.129999995231628</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.210000038146973</v>
       </c>
       <c r="C14" t="n">
-        <v>1.129999995231628</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.200000047683716</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.129999995231628</v>
       </c>
       <c r="C15" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.200000047683716</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +693,13 @@
         <v>1.129999995231628</v>
       </c>
       <c r="C16" t="n">
-        <v>1.200000047683716</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1.149999976158142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +710,13 @@
         <v>1.200000047683716</v>
       </c>
       <c r="C17" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.149999976158142</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -685,13 +727,13 @@
         <v>1.200000047683716</v>
       </c>
       <c r="C18" t="n">
-        <v>1.149999976158142</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.100000023841858</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1.149999976158142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.100000023841858</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1.179999947547913</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>0.9700000286102295</v>
       </c>
       <c r="C20" t="n">
-        <v>1.100000023841858</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>1.179999947547913</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>1.200000047683716</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C21" t="n">
-        <v>1.179999947547913</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>1.200000047683716</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>1.210000038146973</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>1.179999947547913</v>
       </c>
       <c r="C22" t="n">
-        <v>1.200000047683716</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>1.210000038146973</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.240000009536743</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>1.200000047683716</v>
       </c>
       <c r="C23" t="n">
-        <v>1.210000038146973</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.240000009536743</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.200000047683716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>1.210000038146973</v>
       </c>
       <c r="C24" t="n">
-        <v>1.240000009536743</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1.200000047683716</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.210000038146973</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>1.240000009536743</v>
       </c>
       <c r="C25" t="n">
-        <v>1.200000047683716</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.210000038146973</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>1.200000047683716</v>
       </c>
       <c r="C26" t="n">
-        <v>1.210000038146973</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>1.210000038146973</v>
       </c>
       <c r="C27" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>1.049999952316284</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9543657302856445</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.001143455505371</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9408697485923767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.003283977508545</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.971832811832428</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02521812915802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.004850387573242</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9716927409172058</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.073493599891663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.004195213317871</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9706117510795593</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.072295427322388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.005043029785156</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9806271195411682</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.065536737442017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.049460291862488</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.014093041419983</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.045212268829346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.054728627204895</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9922175407409668</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.037800669670105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.049834370613098</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.045045971870422</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01186740398407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.089642763137817</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.012668967247009</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.010487198829651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.029096364974976</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.022085428237915</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.026133060455322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.030034184455872</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9649601578712463</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9680001139640808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9891443848609924</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9809468388557434</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9756661057472229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.090359926223755</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9830696582794189</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9530662894248962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9996044039726257</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9983212351799011</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9628378748893738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.002893686294556</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.025540590286255</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9551997780799866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9656405448913574</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.015082120895386</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9420315623283386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9672650694847107</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9886801838874817</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9834606051445007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9727797508239746</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.041106700897217</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.985750138759613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9572153091430664</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9694448709487915</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9367305636405945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9740041494369507</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.00508451461792</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9371750950813293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9771606922149658</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9771436452865601</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9317099452018738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9742540717124939</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.998274564743042</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9376627802848816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.064776182174683</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9744787216186523</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9488679766654968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9762359857559204</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.004546165466309</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9375849366188049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9815496206283569</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9950107932090759</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9357383847236633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9783434867858887</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9908843636512756</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9341585040092468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>0.971321165561676</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9767059683799744</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9348118901252747</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
